--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="H2">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="I2">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="J2">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="N2">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="O2">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="P2">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="Q2">
-        <v>5.376225931561</v>
+        <v>37.602478711396</v>
       </c>
       <c r="R2">
-        <v>48.38603338404899</v>
+        <v>338.422308402564</v>
       </c>
       <c r="S2">
-        <v>0.04205154768294592</v>
+        <v>0.1529281282131683</v>
       </c>
       <c r="T2">
-        <v>0.04205154768294592</v>
+        <v>0.1529281282131683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="H3">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="I3">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="J3">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>19.392413</v>
       </c>
       <c r="O3">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="P3">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="Q3">
-        <v>14.98819561943233</v>
+        <v>39.63864808783933</v>
       </c>
       <c r="R3">
-        <v>134.893760574891</v>
+        <v>356.747832790554</v>
       </c>
       <c r="S3">
-        <v>0.1172340654569325</v>
+        <v>0.1612091666482777</v>
       </c>
       <c r="T3">
-        <v>0.1172340654569325</v>
+        <v>0.1612091666482777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="H4">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="I4">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="J4">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="N4">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="O4">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="P4">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="Q4">
-        <v>5.674472460582666</v>
+        <v>18.00626755054333</v>
       </c>
       <c r="R4">
-        <v>51.070252145244</v>
+        <v>162.05640795489</v>
       </c>
       <c r="S4">
-        <v>0.04438436038391554</v>
+        <v>0.07323093814492511</v>
       </c>
       <c r="T4">
-        <v>0.04438436038391554</v>
+        <v>0.07323093814492512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="H5">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="I5">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="J5">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="N5">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="O5">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="P5">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="Q5">
-        <v>0.1783187852243333</v>
+        <v>0.9078083196406667</v>
       </c>
       <c r="R5">
-        <v>1.604869067019</v>
+        <v>8.170274876765999</v>
       </c>
       <c r="S5">
-        <v>0.001394766699741135</v>
+        <v>0.003692028607063992</v>
       </c>
       <c r="T5">
-        <v>0.001394766699741135</v>
+        <v>0.003692028607063992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>19.392413</v>
       </c>
       <c r="I6">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="J6">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="N6">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="O6">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="P6">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="Q6">
-        <v>14.98819561943233</v>
+        <v>39.63864808783933</v>
       </c>
       <c r="R6">
-        <v>134.893760574891</v>
+        <v>356.747832790554</v>
       </c>
       <c r="S6">
-        <v>0.1172340654569325</v>
+        <v>0.1612091666482777</v>
       </c>
       <c r="T6">
-        <v>0.1172340654569325</v>
+        <v>0.1612091666482777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>19.392413</v>
       </c>
       <c r="I7">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="J7">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>19.392413</v>
       </c>
       <c r="O7">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="P7">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="Q7">
         <v>41.78507577361876</v>
@@ -880,10 +880,10 @@
         <v>376.0656819625689</v>
       </c>
       <c r="S7">
-        <v>0.3268328244939759</v>
+        <v>0.1699386222474824</v>
       </c>
       <c r="T7">
-        <v>0.3268328244939759</v>
+        <v>0.1699386222474824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>19.392413</v>
       </c>
       <c r="I8">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="J8">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="N8">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="O8">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="P8">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="Q8">
-        <v>15.81966687393289</v>
+        <v>18.98130461796278</v>
       </c>
       <c r="R8">
-        <v>142.377001865396</v>
+        <v>170.831741561665</v>
       </c>
       <c r="S8">
-        <v>0.1237376338617441</v>
+        <v>0.07719638400830438</v>
       </c>
       <c r="T8">
-        <v>0.1237376338617441</v>
+        <v>0.07719638400830438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,40 +974,40 @@
         <v>19.392413</v>
       </c>
       <c r="I9">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="J9">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="N9">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="O9">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="P9">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="Q9">
-        <v>0.4971288166801111</v>
+        <v>0.9569660231612221</v>
       </c>
       <c r="R9">
-        <v>4.474159350121</v>
+        <v>8.612694208450998</v>
       </c>
       <c r="S9">
-        <v>0.003888422176692331</v>
+        <v>0.003891951480349951</v>
       </c>
       <c r="T9">
-        <v>0.003888422176692331</v>
+        <v>0.003891951480349952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="H10">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="I10">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="J10">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="N10">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="O10">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="P10">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="Q10">
-        <v>5.674472460582666</v>
+        <v>18.00626755054333</v>
       </c>
       <c r="R10">
-        <v>51.070252145244</v>
+        <v>162.05640795489</v>
       </c>
       <c r="S10">
-        <v>0.04438436038391554</v>
+        <v>0.07323093814492511</v>
       </c>
       <c r="T10">
-        <v>0.04438436038391554</v>
+        <v>0.07323093814492512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="H11">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="I11">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="J11">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,22 +1116,22 @@
         <v>19.392413</v>
       </c>
       <c r="O11">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="P11">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="Q11">
-        <v>15.81966687393289</v>
+        <v>18.98130461796278</v>
       </c>
       <c r="R11">
-        <v>142.377001865396</v>
+        <v>170.831741561665</v>
       </c>
       <c r="S11">
-        <v>0.1237376338617441</v>
+        <v>0.07719638400830438</v>
       </c>
       <c r="T11">
-        <v>0.1237376338617441</v>
+        <v>0.07719638400830438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="H12">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="I12">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="J12">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="N12">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="O12">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="P12">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="Q12">
-        <v>5.989264237740444</v>
+        <v>8.622454748002779</v>
       </c>
       <c r="R12">
-        <v>53.90337813966399</v>
+        <v>77.60209273202501</v>
       </c>
       <c r="S12">
-        <v>0.04684658604107018</v>
+        <v>0.03506725913829677</v>
       </c>
       <c r="T12">
-        <v>0.04684658604107018</v>
+        <v>0.03506725913829677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,46 +1216,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="H13">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="I13">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="J13">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="N13">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="O13">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="P13">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="Q13">
-        <v>0.1882110329515555</v>
+        <v>0.4347117543372223</v>
       </c>
       <c r="R13">
-        <v>1.693899296564</v>
+        <v>3.912405789035</v>
       </c>
       <c r="S13">
-        <v>0.001472141485006534</v>
+        <v>0.001767959378776442</v>
       </c>
       <c r="T13">
-        <v>0.001472141485006534</v>
+        <v>0.001767959378776442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,52 +1272,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="H14">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="I14">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="J14">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="N14">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="O14">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="P14">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="Q14">
-        <v>0.1783187852243333</v>
+        <v>0.9078083196406667</v>
       </c>
       <c r="R14">
-        <v>1.604869067019</v>
+        <v>8.170274876765999</v>
       </c>
       <c r="S14">
-        <v>0.001394766699741135</v>
+        <v>0.003692028607063992</v>
       </c>
       <c r="T14">
-        <v>0.001394766699741135</v>
+        <v>0.003692028607063992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,22 +1334,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="H15">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="I15">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="J15">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,22 +1364,22 @@
         <v>19.392413</v>
       </c>
       <c r="O15">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="P15">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="Q15">
-        <v>0.4971288166801111</v>
+        <v>0.9569660231612221</v>
       </c>
       <c r="R15">
-        <v>4.474159350121</v>
+        <v>8.612694208450998</v>
       </c>
       <c r="S15">
-        <v>0.003888422176692331</v>
+        <v>0.003891951480349951</v>
       </c>
       <c r="T15">
-        <v>0.003888422176692331</v>
+        <v>0.003891951480349952</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="H16">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="I16">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="J16">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="N16">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="O16">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="P16">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="Q16">
-        <v>0.1882110329515555</v>
+        <v>0.4347117543372223</v>
       </c>
       <c r="R16">
-        <v>1.693899296564</v>
+        <v>3.912405789035</v>
       </c>
       <c r="S16">
-        <v>0.001472141485006534</v>
+        <v>0.001767959378776442</v>
       </c>
       <c r="T16">
-        <v>0.001472141485006534</v>
+        <v>0.001767959378776442</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="H17">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="I17">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="J17">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="N17">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="O17">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="P17">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="Q17">
-        <v>0.005914481565444444</v>
+        <v>0.02191653245877778</v>
       </c>
       <c r="R17">
-        <v>0.05323033408900001</v>
+        <v>0.197248792129</v>
       </c>
       <c r="S17">
-        <v>4.626165394373174E-05</v>
+        <v>8.913386565732603E-05</v>
       </c>
       <c r="T17">
-        <v>4.626165394373174E-05</v>
+        <v>8.913386565732606E-05</v>
       </c>
     </row>
   </sheetData>
